--- a/programa/FATURAMENTO_vs2.xlsx
+++ b/programa/FATURAMENTO_vs2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayer\Desktop\Faturamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayer\Documents\MeusProjetos\faturamento_com_interface\programa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB94C1-84BC-4FBD-A1E9-0200155CCF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B46E0D-1C2C-4AE0-90E8-08DA19B0B6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3885" windowWidth="23040" windowHeight="9105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faturamento do dia" sheetId="1" r:id="rId1"/>
@@ -777,10 +777,13 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
